--- a/public/cohort/fileExcel/xlsxUIT/SK PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/SK PTA en onderwijsprogramma.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -269,9 +269,6 @@
     <t xml:space="preserve">Een scheikundig onderzoek, zouten en zoutoplossingen. H1, H2, H3, H5 </t>
   </si>
   <si>
-    <t>A, D2</t>
-  </si>
-  <si>
     <t>Proefwerk H6 koolstofchemie</t>
   </si>
   <si>
@@ -281,21 +278,12 @@
     <t>H7, H8, H10 - Zuren, basen, redoxreacties. H1 t/m H5: Basiskennis</t>
   </si>
   <si>
-    <t>E2, E3, F4</t>
-  </si>
-  <si>
     <t>H9, H13 - Reacties en energie, duurzaam produceren. H1 t/m H5: Basiskennis</t>
   </si>
   <si>
-    <t>C4, C5, E2, F2, F4, F5, G3, G4, G5</t>
-  </si>
-  <si>
     <t>H11, H12 - Kunststoffen, chemie van het leven. H1 t/m H5: Basiskennis</t>
   </si>
   <si>
-    <t>D4</t>
-  </si>
-  <si>
     <t>Vaardigheden</t>
   </si>
   <si>
@@ -317,52 +305,31 @@
     <t>H4 en H5 - Zouten en zoutoplossingen</t>
   </si>
   <si>
-    <t>A, D2, E5, G4</t>
-  </si>
-  <si>
     <t>Proefwerk H6 en H7 (koolstofchemie, duurzaamheid), met basiskennis van de vorige hoofdstukken</t>
   </si>
   <si>
     <t>H7 en H8 - Duurzaamheidheid, zuren</t>
   </si>
   <si>
-    <t>A, C9, E3, F4, F5, G4, G5</t>
-  </si>
-  <si>
     <t>H8, H9, H11 - Zzuren, basen, redoxreacties</t>
   </si>
   <si>
-    <t>C9, C10, D2, E3, F4</t>
-  </si>
-  <si>
     <t>H10, H12 - Analyse, molecuulbouw</t>
   </si>
   <si>
-    <t>C6, C7, C8, D4, E5</t>
-  </si>
-  <si>
     <t>H13 en H14 - Kunststoffen, nieuwe materialen</t>
   </si>
   <si>
     <t>Onderzoek</t>
   </si>
   <si>
-    <t>A, D2, E4, E5, F4, F5, G4</t>
-  </si>
-  <si>
     <t>H8, H9, H11, H17, H18 - Redoxreacties, zuren en basen, H1 t/m 6: Basiskennis</t>
   </si>
   <si>
     <t>H6, H12, H13, H16 - Molecuulbouw en koolstofchemie, H1 t/m 6: Basiskennis</t>
   </si>
   <si>
-    <t>E3, E4, E5</t>
-  </si>
-  <si>
     <t>H7, H10.3, H10.4, H10.5, H14, H15 - Groene chemie, nieuwe materialen, analyse, H1 t/m 6: Basiskennis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C8, C9, C10, E3, F4, F5, G4, G5 </t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1346,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1387,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I6" s="27">
         <v>1</v>
@@ -1406,9 +1373,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32">
-        <v>0</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -1423,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I7" s="27">
         <v>2</v>
@@ -1442,9 +1407,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32">
-        <v>0</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -1459,7 +1422,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I8" s="27">
         <v>2</v>
@@ -1478,9 +1441,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32">
-        <v>0</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -1496,7 +1457,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I9" s="27">
         <v>1</v>
@@ -1515,9 +1476,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32">
-        <v>0</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -1525,7 +1484,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633356481</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1533,7 +1492,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I10" s="27">
         <v>2</v>
@@ -1552,9 +1511,7 @@
       <c r="O10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="32" t="s">
-        <v>96</v>
-      </c>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -1570,7 +1527,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I11" s="27">
         <v>2</v>
@@ -1589,9 +1546,7 @@
       <c r="O11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="32">
-        <v>0</v>
-      </c>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
@@ -1634,7 +1589,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
@@ -2293,7 +2248,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2407,7 +2362,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633356481</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2562,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I18" s="27">
         <v>2</v>
@@ -2583,9 +2538,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32" t="s">
-        <v>99</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -2594,7 +2547,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I19" s="27">
         <v>2</v>
@@ -2615,9 +2568,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>101</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -2626,7 +2577,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I20" s="27">
         <v>2</v>
@@ -2647,9 +2598,7 @@
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32" t="s">
-        <v>103</v>
-      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -2658,7 +2607,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="I21" s="27">
         <v>2</v>
@@ -2677,9 +2626,7 @@
       <c r="O21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="32">
-        <v>0</v>
-      </c>
+      <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2"/>
@@ -2688,7 +2635,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="I22" s="27">
         <v>2</v>
@@ -2707,9 +2654,7 @@
       <c r="O22" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P22" s="32" t="s">
-        <v>106</v>
-      </c>
+      <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
       <c r="D23" s="2"/>
@@ -2751,7 +2696,7 @@
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
       <c r="G26" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
@@ -3205,7 +3150,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3319,7 +3264,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633356481</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3679,7 +3624,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
@@ -3698,9 +3643,7 @@
       <c r="O30" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P30" s="32" t="s">
-        <v>101</v>
-      </c>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2"/>
@@ -3709,7 +3652,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
@@ -3728,9 +3671,7 @@
       <c r="O31" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P31" s="32" t="s">
-        <v>109</v>
-      </c>
+      <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2"/>
@@ -3739,7 +3680,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="29" t="s">
@@ -3758,9 +3699,7 @@
       <c r="O32" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P32" s="32" t="s">
-        <v>111</v>
-      </c>
+      <c r="P32" s="32"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2"/>
@@ -3846,7 +3785,7 @@
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
       <c r="G38" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
@@ -4199,7 +4138,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633356481</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5154,7 +5093,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633356481</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5970,7 +5909,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633356481</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6786,7 +6725,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633356481</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7525,9 +7464,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32">
-        <v>0</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -7561,9 +7498,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32">
-        <v>0</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -7597,9 +7532,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32">
-        <v>0</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -7634,9 +7567,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32">
-        <v>0</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -7644,7 +7575,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633356481</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7671,9 +7602,7 @@
       <c r="O10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="32" t="s">
-        <v>80</v>
-      </c>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -7689,7 +7618,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I11" s="27">
         <v>2</v>
@@ -7708,9 +7637,7 @@
       <c r="O11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="32">
-        <v>0</v>
-      </c>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
@@ -7753,7 +7680,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
@@ -8526,7 +8453,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633356481</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8681,7 +8608,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
@@ -8700,9 +8627,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32" t="s">
-        <v>84</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -8711,7 +8636,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
@@ -8730,9 +8655,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>86</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -8741,7 +8664,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
@@ -8760,9 +8683,7 @@
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32" t="s">
-        <v>88</v>
-      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -8771,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
@@ -8788,9 +8709,7 @@
       <c r="O21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="32" t="s">
-        <v>80</v>
-      </c>
+      <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2"/>
@@ -8854,7 +8773,7 @@
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
       <c r="G26" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
@@ -9412,7 +9331,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633356481</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/SK PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/SK PTA en onderwijsprogramma.xlsx
@@ -1348,7 +1348,9 @@
       <c r="B6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>243</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -1382,7 +1384,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>244</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>1</v>
@@ -1416,7 +1420,9 @@
       <c r="B8" s="2">
         <v>70</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>245</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>2</v>
@@ -1451,7 +1457,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>246</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>3</v>
@@ -1484,9 +1492,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445717593</v>
+      </c>
+      <c r="D10" s="2">
+        <v>247</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>3</v>
@@ -1521,7 +1531,9 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>248</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="G11" s="27">
         <v>4</v>
@@ -1568,7 +1580,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>172</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag A4 (schooljaar 2020 - 2021)</v>
@@ -1782,7 +1796,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>173</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag A5 (schooljaar 2021 - 2022)</v>
@@ -1987,7 +2003,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>174</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag A6 (schooljaar 2022 - 2023)</v>
@@ -2362,7 +2380,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2434,7 +2452,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>175</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag A4 (schooljaar 2019 - 2020)</v>
@@ -2511,7 +2531,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>249</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -2541,7 +2563,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>250</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>2</v>
@@ -2571,7 +2595,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>251</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>3</v>
@@ -2601,7 +2627,9 @@
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>252</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
         <v>4</v>
@@ -2629,7 +2657,9 @@
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>253</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="G22" s="27">
         <v>4</v>
@@ -2682,7 +2712,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>176</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag A5 (schooljaar 2020 - 2021)</v>
@@ -2889,7 +2921,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>177</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag A6 (schooljaar 2021 - 2022)</v>
@@ -3264,7 +3298,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3336,7 +3370,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>178</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag A4 (schooljaar 2018 - 2019)</v>
@@ -3548,7 +3584,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>179</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag A5 (schooljaar 2019 - 2020)</v>
@@ -3618,7 +3656,9 @@
       </c>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>254</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="G30" s="27">
         <v>1</v>
@@ -3646,7 +3686,9 @@
       <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>255</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="G31" s="27">
         <v>2</v>
@@ -3674,7 +3716,9 @@
       <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>256</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="G32" s="27">
         <v>3</v>
@@ -3771,7 +3815,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>180</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag A6 (schooljaar 2020 - 2021)</v>
@@ -4138,7 +4184,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5093,7 +5139,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5909,7 +5955,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6725,7 +6771,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7439,7 +7485,9 @@
       <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>233</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -7473,7 +7521,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>234</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>2</v>
@@ -7507,7 +7557,9 @@
       <c r="B8" s="2">
         <v>68</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>235</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>3</v>
@@ -7542,7 +7594,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2022</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>236</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>3</v>
@@ -7575,9 +7629,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445717593</v>
+      </c>
+      <c r="D10" s="2">
+        <v>237</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>4</v>
@@ -7612,7 +7668,9 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>238</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="G11" s="27">
         <v>4</v>
@@ -7659,7 +7717,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>168</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag H4 (schooljaar 2020 - 2021)</v>
@@ -7873,7 +7933,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>169</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag H5 (schooljaar 2021 - 2022)</v>
@@ -8453,7 +8515,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8525,7 +8587,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>170</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag H4 (schooljaar 2019 - 2020)</v>
@@ -8602,7 +8666,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>239</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -8630,7 +8696,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>240</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>2</v>
@@ -8658,7 +8726,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>241</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>3</v>
@@ -8686,7 +8756,9 @@
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>242</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
         <v>0</v>
@@ -8759,7 +8831,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>171</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag H5 (schooljaar 2020 - 2021)</v>
@@ -9331,7 +9405,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/SK PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/SK PTA en onderwijsprogramma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <workbookProtection lockRevision="false" lockStructure="true" lockWindows="false"/>
   <bookViews>
-    <workbookView activeTab="11" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="12" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="instellingen" sheetId="1" r:id="rId4"/>
@@ -13,13 +13,14 @@
     <sheet name="wensen" sheetId="3" r:id="rId6"/>
     <sheet name="M 2021" sheetId="4" r:id="rId7"/>
     <sheet name="M 2020" sheetId="5" r:id="rId8"/>
-    <sheet name="H 2021" sheetId="6" r:id="rId9"/>
-    <sheet name="H 2020" sheetId="7" r:id="rId10"/>
-    <sheet name="H 2019" sheetId="8" r:id="rId11"/>
-    <sheet name="A 2021" sheetId="9" r:id="rId12"/>
-    <sheet name="A 2020" sheetId="10" r:id="rId13"/>
-    <sheet name="A 2019" sheetId="11" r:id="rId14"/>
-    <sheet name="A 2018" sheetId="12" r:id="rId15"/>
+    <sheet name="M 2019" sheetId="6" r:id="rId9"/>
+    <sheet name="H 2021" sheetId="7" r:id="rId10"/>
+    <sheet name="H 2020" sheetId="8" r:id="rId11"/>
+    <sheet name="H 2019" sheetId="9" r:id="rId12"/>
+    <sheet name="A 2021" sheetId="10" r:id="rId13"/>
+    <sheet name="A 2020" sheetId="11" r:id="rId14"/>
+    <sheet name="A 2019" sheetId="12" r:id="rId15"/>
+    <sheet name="A 2018" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -251,6 +252,9 @@
     <t>SK</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
@@ -269,6 +273,9 @@
     <t xml:space="preserve">Een scheikundig onderzoek, zouten en zoutoplossingen. H1, H2, H3, H5 </t>
   </si>
   <si>
+    <t>A, D2</t>
+  </si>
+  <si>
     <t>Proefwerk H6 koolstofchemie</t>
   </si>
   <si>
@@ -278,12 +285,21 @@
     <t>H7, H8, H10 - Zuren, basen, redoxreacties. H1 t/m H5: Basiskennis</t>
   </si>
   <si>
+    <t>E2, E3, F4</t>
+  </si>
+  <si>
     <t>H9, H13 - Reacties en energie, duurzaam produceren. H1 t/m H5: Basiskennis</t>
   </si>
   <si>
+    <t>C4, C5, E2, F2, F4, F5, G3, G4, G5</t>
+  </si>
+  <si>
     <t>H11, H12 - Kunststoffen, chemie van het leven. H1 t/m H5: Basiskennis</t>
   </si>
   <si>
+    <t>D4</t>
+  </si>
+  <si>
     <t>Vaardigheden</t>
   </si>
   <si>
@@ -305,31 +321,52 @@
     <t>H4 en H5 - Zouten en zoutoplossingen</t>
   </si>
   <si>
+    <t>A, D2, E5, G4</t>
+  </si>
+  <si>
     <t>Proefwerk H6 en H7 (koolstofchemie, duurzaamheid), met basiskennis van de vorige hoofdstukken</t>
   </si>
   <si>
     <t>H7 en H8 - Duurzaamheidheid, zuren</t>
   </si>
   <si>
+    <t>A, C9, E3, F4, F5, G4, G5</t>
+  </si>
+  <si>
     <t>H8, H9, H11 - Zzuren, basen, redoxreacties</t>
   </si>
   <si>
+    <t>C9, C10, D2, E3, F4</t>
+  </si>
+  <si>
     <t>H10, H12 - Analyse, molecuulbouw</t>
   </si>
   <si>
+    <t>C6, C7, C8, D4, E5</t>
+  </si>
+  <si>
     <t>H13 en H14 - Kunststoffen, nieuwe materialen</t>
   </si>
   <si>
     <t>Onderzoek</t>
   </si>
   <si>
+    <t>A, D2, E4, E5, F4, F5, G4</t>
+  </si>
+  <si>
     <t>H8, H9, H11, H17, H18 - Redoxreacties, zuren en basen, H1 t/m 6: Basiskennis</t>
   </si>
   <si>
     <t>H6, H12, H13, H16 - Molecuulbouw en koolstofchemie, H1 t/m 6: Basiskennis</t>
   </si>
   <si>
+    <t>E3, E4, E5</t>
+  </si>
+  <si>
     <t>H7, H10.3, H10.4, H10.5, H14, H15 - Groene chemie, nieuwe materialen, analyse, H1 t/m 6: Basiskennis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8, C9, C10, E3, F4, F5, G4, G5 </t>
   </si>
 </sst>
 </file>
@@ -1258,12 +1295,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
+      <c r="B2" s="2">
+        <v>0</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
+        <v>verouderd PTA</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -1285,25 +1322,21 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>SK leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v> leerlaag 4 (schooljaar  - 1)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2">
-        <v>17</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -1345,35 +1378,25 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="2">
-        <v>243</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="I6" s="27">
-        <v>1</v>
-      </c>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27">
-        <v>50</v>
-      </c>
+      <c r="L6" s="27"/>
       <c r="M6" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -1381,35 +1404,25 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>244</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>1</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" s="27">
-        <v>2</v>
-      </c>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27">
-        <v>100</v>
-      </c>
+      <c r="L7" s="27"/>
       <c r="M7" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -1417,35 +1430,25 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2">
-        <v>70</v>
-      </c>
-      <c r="D8" s="2">
-        <v>245</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>2</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" s="27">
-        <v>2</v>
-      </c>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27">
-        <v>100</v>
-      </c>
+      <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -1455,34 +1458,26 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2023</v>
-      </c>
-      <c r="D9" s="2">
-        <v>246</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>3</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="I9" s="27">
-        <v>1</v>
-      </c>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27">
-        <v>50</v>
-      </c>
+      <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -1492,34 +1487,26 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
-      </c>
-      <c r="D10" s="2">
-        <v>247</v>
-      </c>
+        <v>44340.444085648</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>3</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="I10" s="27">
-        <v>2</v>
-      </c>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K10" s="30"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P10" s="32"/>
     </row>
@@ -1531,32 +1518,24 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2">
-        <v>248</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="G11" s="27">
-        <v>4</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11" s="27">
-        <v>2</v>
-      </c>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="27">
-        <v>100</v>
-      </c>
+      <c r="L11" s="27"/>
       <c r="M11" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N11" s="31"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P11" s="32"/>
     </row>
@@ -1575,17 +1554,15 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>0</v>
+        <v>-2020</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2">
-        <v>172</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -1600,11 +1577,9 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>81</v>
-      </c>
+        <v>2024</v>
+      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -1619,7 +1594,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>SK leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v> leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -1796,12 +1771,10 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2">
-        <v>173</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -1826,7 +1799,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>SK leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v> leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -2003,12 +1976,10 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2">
-        <v>174</v>
-      </c>
+      <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -2082,44 +2053,6 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
@@ -2183,7 +2116,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -2214,7 +2147,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>SK leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>SK leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -2266,26 +2199,34 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="D6" s="2">
+        <v>243</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="27">
+        <v>1</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>50</v>
+      </c>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
-        <v>5</v>
+      <c r="O6" s="31">
+        <v>0</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -2294,26 +2235,34 @@
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>244</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>1</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <v>100</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="31"/>
-      <c r="O7" s="31" t="s">
-        <v>5</v>
+      <c r="O7" s="31">
+        <v>0</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -2322,26 +2271,34 @@
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>71</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="D8" s="2">
+        <v>245</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>2</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="27">
+        <v>2</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="27">
+        <v>100</v>
+      </c>
       <c r="M8" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="31"/>
-      <c r="O8" s="31" t="s">
-        <v>5</v>
+      <c r="O8" s="31">
+        <v>0</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -2351,26 +2308,34 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2023</v>
+      </c>
+      <c r="D9" s="2">
+        <v>246</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="27">
+        <v>1</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>50</v>
+      </c>
       <c r="M9" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="31"/>
-      <c r="O9" s="31" t="s">
-        <v>5</v>
+      <c r="O9" s="31">
+        <v>0</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -2380,28 +2345,38 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44340.444085648</v>
+      </c>
+      <c r="D10" s="2">
+        <v>247</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>3</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="27">
+        <v>2</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K10" s="30"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="31">
+        <v>1</v>
+      </c>
       <c r="O10" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -2411,24 +2386,32 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>248</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
+      <c r="G11" s="27">
+        <v>4</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="27">
+        <v>2</v>
+      </c>
       <c r="J11" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
+      <c r="L11" s="27">
+        <v>100</v>
+      </c>
       <c r="M11" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N11" s="31"/>
-      <c r="O11" s="31" t="s">
-        <v>5</v>
+      <c r="O11" s="31">
+        <v>0</v>
       </c>
       <c r="P11" s="32"/>
     </row>
@@ -2447,17 +2430,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -2472,9 +2455,11 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
-      </c>
-      <c r="G14" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>83</v>
+      </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -2489,7 +2474,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>SK leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>SK leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -2531,158 +2516,112 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>249</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" s="27">
-        <v>2</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27">
-        <v>100</v>
-      </c>
+      <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>250</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" s="27">
-        <v>2</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27">
-        <v>100</v>
-      </c>
+      <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>251</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>3</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20" s="27">
-        <v>2</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27">
-        <v>100</v>
-      </c>
+      <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2">
-        <v>252</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>4</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="27">
-        <v>2</v>
-      </c>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="27">
-        <v>100</v>
-      </c>
+      <c r="L21" s="27"/>
       <c r="M21" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N21" s="31"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2">
-        <v>253</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22" s="27">
-        <v>4</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="27">
-        <v>2</v>
-      </c>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K22" s="30"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P22" s="32"/>
     </row>
@@ -2713,11 +2652,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -2727,9 +2666,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34" t="s">
-        <v>81</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -2744,7 +2681,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>SK leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>SK leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -2922,11 +2859,11 @@
         <v>28</v>
       </c>
       <c r="D37" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -3059,6 +2996,932 @@
   </sheetPr>
   <dimension ref="A1:Q38"/>
   <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>SK leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>71</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444085648</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>175</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>SK leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2">
+        <v>249</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="27">
+        <v>2</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27">
+        <v>100</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>2</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2">
+        <v>250</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="27">
+        <v>2</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27">
+        <v>100</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>2</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2">
+        <v>251</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" s="27">
+        <v>2</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>2</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2">
+        <v>252</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27">
+        <v>4</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" s="27">
+        <v>2</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27">
+        <v>100</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31">
+        <v>0</v>
+      </c>
+      <c r="P21" s="32"/>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2">
+        <v>253</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27">
+        <v>4</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="27">
+        <v>2</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="31">
+        <v>1</v>
+      </c>
+      <c r="O22" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>176</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>SK leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2">
+        <v>177</v>
+      </c>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
@@ -3184,7 +4047,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3298,7 +4161,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3664,7 +4527,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
@@ -3681,9 +4544,11 @@
         <v>2</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P30" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P30" s="32" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2">
@@ -3694,7 +4559,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
@@ -3711,9 +4576,11 @@
         <v>2</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P31" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P31" s="32" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2">
@@ -3724,7 +4591,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="29" t="s">
@@ -3741,9 +4608,11 @@
         <v>2</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P32" s="32" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2"/>
@@ -3831,7 +4700,7 @@
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
       <c r="G38" s="34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
@@ -4184,7 +5053,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5139,7 +6008,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5955,7 +6824,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6579,12 +7448,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige M5 (cohort 2019 - 2020)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -6606,6 +7475,871 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>SK leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>67</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2020</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444085648</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>166</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>SK leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="32"/>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="32"/>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="32"/>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="32"/>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>167</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>SK leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="11">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>verouderd PTA</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
@@ -6771,7 +8505,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7351,924 +9085,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:Q38"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
-    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
-    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
-    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
-    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
-    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
-    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
-    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
-    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
-    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
-    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" customHeight="1" ht="48">
-      <c r="A2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="35" t="str">
-        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" customHeight="1" ht="30">
-      <c r="A4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="G4" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>SK leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" customHeight="1" ht="34.5">
-      <c r="A5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2">
-        <v>17</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" customHeight="1" ht="72">
-      <c r="A6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2">
-        <v>233</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="27">
-        <v>2</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="27">
-        <v>100</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="32"/>
-    </row>
-    <row r="7" spans="1:17" customHeight="1" ht="72">
-      <c r="A7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>234</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>2</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="27">
-        <v>2</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="27">
-        <v>100</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="32"/>
-    </row>
-    <row r="8" spans="1:17" customHeight="1" ht="72">
-      <c r="A8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2">
-        <v>68</v>
-      </c>
-      <c r="D8" s="2">
-        <v>235</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>3</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="27">
-        <v>1</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="27">
-        <v>50</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="32"/>
-    </row>
-    <row r="9" spans="1:17" customHeight="1" ht="72">
-      <c r="A9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="4">
-        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2">
-        <v>236</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>3</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="27">
-        <v>2</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="27">
-        <v>100</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="32"/>
-    </row>
-    <row r="10" spans="1:17" customHeight="1" ht="72">
-      <c r="A10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="6">
-        <f>NOW()</f>
-        <v>44336.445717593</v>
-      </c>
-      <c r="D10" s="2">
-        <v>237</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>4</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="27">
-        <v>2</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="31">
-        <v>1</v>
-      </c>
-      <c r="O10" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="32"/>
-    </row>
-    <row r="11" spans="1:17" customHeight="1" ht="72">
-      <c r="A11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="4">
-        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
-        <v>2020</v>
-      </c>
-      <c r="D11" s="2">
-        <v>238</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="G11" s="27">
-        <v>4</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="27">
-        <v>2</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="27">
-        <v>100</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="32"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f>CONCATENATE(B11," - ",B11+1)</f>
-        <v>2020 - 2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="4">
-        <f>B7-B11</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2">
-        <v>168</v>
-      </c>
-      <c r="G13" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-    </row>
-    <row r="14" spans="1:17" customHeight="1" ht="72">
-      <c r="A14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="7">
-        <f>4+B11-B7</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="16" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="G16" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>SK leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
-    </row>
-    <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
-    </row>
-    <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
-    </row>
-    <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="32"/>
-    </row>
-    <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="32"/>
-    </row>
-    <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="32"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="C25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="2">
-        <v>169</v>
-      </c>
-      <c r="G25" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-    </row>
-    <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-    </row>
-    <row r="28" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="G28" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>SK leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="32"/>
-    </row>
-    <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="32"/>
-    </row>
-    <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="G32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="32"/>
-    </row>
-    <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="G33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="32"/>
-    </row>
-    <row r="34" spans="1:17" customHeight="1" ht="72">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="G34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="32"/>
-    </row>
-    <row r="35" spans="1:17" customHeight="1" ht="72">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="G35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="32"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="C37" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="G37" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-    </row>
-    <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="G26:M26"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J6:J11">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISBLANK($J6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:J23">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>ISBLANK($J18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J35">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>ISBLANK($J30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M11">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>ISBLANK($M6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:M23">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>ISBLANK($M18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M30:M35">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>ISBLANK($M30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O11">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>ISBLANK($O6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O23">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>ISBLANK($O18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O30:O35">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>ISBLANK($O30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
@@ -8318,7 +9134,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
+        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -8349,7 +9165,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>SK leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>SK leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -8401,26 +9217,34 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="D6" s="2">
+        <v>233</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="27">
+        <v>2</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>100</v>
+      </c>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
-        <v>5</v>
+      <c r="O6" s="31">
+        <v>0</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -8429,26 +9253,34 @@
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>234</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <v>100</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="31"/>
-      <c r="O7" s="31" t="s">
-        <v>5</v>
+      <c r="O7" s="31">
+        <v>0</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -8457,26 +9289,34 @@
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>69</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="D8" s="2">
+        <v>235</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>3</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="27">
+        <v>1</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="27">
+        <v>50</v>
+      </c>
       <c r="M8" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="31"/>
-      <c r="O8" s="31" t="s">
-        <v>5</v>
+      <c r="O8" s="31">
+        <v>0</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -8486,26 +9326,34 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2021</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2">
+        <v>236</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="27">
+        <v>2</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>100</v>
+      </c>
       <c r="M9" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="31"/>
-      <c r="O9" s="31" t="s">
-        <v>5</v>
+      <c r="O9" s="31">
+        <v>0</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -8515,28 +9363,38 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44340.444085648</v>
+      </c>
+      <c r="D10" s="2">
+        <v>237</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="27">
+        <v>2</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K10" s="30"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="31">
+        <v>1</v>
+      </c>
       <c r="O10" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -8546,24 +9404,32 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>238</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
+      <c r="G11" s="27">
+        <v>4</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="27">
+        <v>2</v>
+      </c>
       <c r="J11" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
+      <c r="L11" s="27">
+        <v>100</v>
+      </c>
       <c r="M11" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N11" s="31"/>
-      <c r="O11" s="31" t="s">
-        <v>5</v>
+      <c r="O11" s="31">
+        <v>0</v>
       </c>
       <c r="P11" s="32"/>
     </row>
@@ -8582,17 +9448,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -8607,9 +9473,11 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
-      </c>
-      <c r="G14" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>83</v>
+      </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -8624,7 +9492,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>SK leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>SK leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -8666,120 +9534,90 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>239</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>82</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27">
-        <v>100</v>
-      </c>
+      <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>240</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>83</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27">
-        <v>100</v>
-      </c>
+      <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>241</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>3</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27">
-        <v>100</v>
-      </c>
+      <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2">
-        <v>242</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>0</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>85</v>
-      </c>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
       <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K21" s="30"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
     </row>
@@ -8832,11 +9670,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -8846,9 +9684,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34" t="s">
-        <v>81</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -8863,7 +9699,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>SK leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>SK leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -9043,7 +9879,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9213,12 +10049,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -9240,21 +10076,25 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v> leerlaag 4 (schooljaar  - 1)</v>
+        <v>SK leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>17</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -9296,7 +10136,9 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="27" t="s">
@@ -9322,7 +10164,9 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="27" t="s">
@@ -9348,7 +10192,9 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>69</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="27" t="s">
@@ -9376,7 +10222,7 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>1</v>
+        <v>2021</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -9405,7 +10251,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9472,15 +10318,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-2020</v>
+        <v>-1</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>170</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -9495,7 +10343,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>2024</v>
+        <v>5</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -9512,7 +10360,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v> leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>SK leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -9554,92 +10402,130 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>239</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>84</v>
+      </c>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
+      <c r="L18" s="27">
+        <v>100</v>
+      </c>
       <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>2</v>
+      </c>
       <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>240</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>86</v>
+      </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
+      <c r="L19" s="27">
+        <v>100</v>
+      </c>
       <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>2</v>
+      </c>
       <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>241</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>88</v>
+      </c>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
       <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>2</v>
+      </c>
       <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>242</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
+      <c r="G21" s="27">
+        <v>0</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>90</v>
+      </c>
       <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K21" s="30"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="31">
+        <v>1</v>
+      </c>
       <c r="O21" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2"/>
@@ -9689,10 +10575,12 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>171</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -9702,7 +10590,9 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
+      <c r="G26" s="34" t="s">
+        <v>83</v>
+      </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -9717,7 +10607,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v> leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>SK leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -9897,7 +10787,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  SK leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9971,6 +10861,44 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>

--- a/public/cohort/fileExcel/xlsxUIT/SK PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/SK PTA en onderwijsprogramma.xlsx
@@ -1664,7 +1664,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809097222</v>
+        <v>44341.376481481</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2338,7 +2338,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809097222</v>
+        <v>44341.376481481</v>
       </c>
       <c r="D10" s="2">
         <v>237</v>
@@ -3468,7 +3468,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809097222</v>
+        <v>44341.376481481</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4586,7 +4586,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -4990,7 +4990,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809097222</v>
+        <v>44341.376481481</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5666,7 +5666,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -6102,7 +6102,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809097222</v>
+        <v>44341.376481481</v>
       </c>
       <c r="D10" s="2">
         <v>247</v>
@@ -6798,7 +6798,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -7202,7 +7202,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809097222</v>
+        <v>44341.376481481</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7934,7 +7934,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -8338,7 +8338,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809097222</v>
+        <v>44341.376481481</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9046,7 +9046,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>

--- a/public/cohort/fileExcel/xlsxUIT/SK PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/SK PTA en onderwijsprogramma.xlsx
@@ -825,21 +825,42 @@
     <t>H</t>
   </si>
   <si>
+    <t>H1 Scheiden en reageren</t>
+  </si>
+  <si>
     <t>startJaar</t>
   </si>
   <si>
+    <t>H2 en 3 Bouwstenen van stoffen, stoffen en reacties, met basiskennis uit de vorige hoofdstukken</t>
+  </si>
+  <si>
     <t>cid</t>
   </si>
   <si>
+    <t>Schriftelijk rekenen aan reacties</t>
+  </si>
+  <si>
     <t>eindJaar</t>
   </si>
   <si>
+    <t>Proefwerk H4 Moleculaire stoffen, met basiskennis uit de vorige hoofdstukken</t>
+  </si>
+  <si>
     <t>vandaag</t>
   </si>
   <si>
+    <t xml:space="preserve">Een scheikundig onderzoek, zouten en zoutoplossingen. H1, H2, H3, H5 </t>
+  </si>
+  <si>
+    <t>A, D2</t>
+  </si>
+  <si>
     <t>huidigStartjaar</t>
   </si>
   <si>
+    <t>Proefwerk H6 koolstofchemie</t>
+  </si>
+  <si>
     <t>huidigSchooljaar</t>
   </si>
   <si>
@@ -850,27 +871,6 @@
   </si>
   <si>
     <t>mavo?</t>
-  </si>
-  <si>
-    <t>H1 Scheiden en reageren</t>
-  </si>
-  <si>
-    <t>H2 en 3 Bouwstenen van stoffen, stoffen en reacties, met basiskennis uit de vorige hoofdstukken</t>
-  </si>
-  <si>
-    <t>Schriftelijk rekenen aan reacties</t>
-  </si>
-  <si>
-    <t>Proefwerk H4 Moleculaire stoffen, met basiskennis uit de vorige hoofdstukken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Een scheikundig onderzoek, zouten en zoutoplossingen. H1, H2, H3, H5 </t>
-  </si>
-  <si>
-    <t>A, D2</t>
-  </si>
-  <si>
-    <t>Proefwerk H6 koolstofchemie</t>
   </si>
   <si>
     <t>De BINAS HAVO/VWO is bij alle schriftelijke toetsen een toegestaan hulpmiddel, tenzij anders vermeld bij de toets.</t>
@@ -2315,185 +2315,235 @@
       <c r="B6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>889</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="23">
+        <v>2</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
+      <c r="L6" s="23">
+        <v>100</v>
+      </c>
       <c r="M6" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="27"/>
-      <c r="O6" s="27" t="s">
-        <v>5</v>
+      <c r="O6" s="27">
+        <v>0</v>
       </c>
       <c r="P6" s="28"/>
       <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>890</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>2</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="23">
+        <v>100</v>
+      </c>
       <c r="M7" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="27"/>
-      <c r="O7" s="27" t="s">
-        <v>5</v>
+      <c r="O7" s="27">
+        <v>0</v>
       </c>
       <c r="P7" s="28"/>
       <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>230</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>891</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>3</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="23">
+        <v>1</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="23">
+        <v>50</v>
+      </c>
       <c r="M8" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="27"/>
-      <c r="O8" s="27" t="s">
-        <v>5</v>
+      <c r="O8" s="27">
+        <v>0</v>
       </c>
       <c r="P8" s="28"/>
       <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>892</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>3</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="23">
+        <v>2</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
+      <c r="L9" s="23">
+        <v>100</v>
+      </c>
       <c r="M9" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="27"/>
-      <c r="O9" s="27" t="s">
-        <v>5</v>
+      <c r="O9" s="27">
+        <v>0</v>
       </c>
       <c r="P9" s="28"/>
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382523148</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.62974537</v>
+      </c>
+      <c r="D10" s="2">
+        <v>893</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>4</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="23">
+        <v>2</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K10" s="26"/>
       <c r="L10" s="23"/>
       <c r="M10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="27">
+        <v>1</v>
+      </c>
       <c r="O10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="Q10" s="37"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>894</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
+      <c r="G11" s="23">
+        <v>4</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="23">
+        <v>2</v>
+      </c>
       <c r="J11" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="26"/>
-      <c r="L11" s="23"/>
+      <c r="L11" s="23">
+        <v>100</v>
+      </c>
       <c r="M11" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N11" s="27"/>
-      <c r="O11" s="27" t="s">
-        <v>5</v>
+      <c r="O11" s="27">
+        <v>0</v>
       </c>
       <c r="P11" s="28"/>
       <c r="Q11" s="37"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -2514,7 +2564,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -2544,7 +2594,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -2565,7 +2615,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -3402,7 +3452,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I6" s="43">
         <v>2</v>
@@ -3426,7 +3476,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -3440,7 +3490,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I7" s="43">
         <v>2</v>
@@ -3464,7 +3514,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>68</v>
@@ -3478,7 +3528,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I8" s="43">
         <v>1</v>
@@ -3502,7 +3552,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -3517,7 +3567,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I9" s="43">
         <v>2</v>
@@ -3541,11 +3591,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382523148</v>
+        <v>44342.62974537</v>
       </c>
       <c r="D10" s="2">
         <v>237</v>
@@ -3556,7 +3606,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="47" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I10" s="43">
         <v>2</v>
@@ -3576,13 +3626,13 @@
         <v>11</v>
       </c>
       <c r="P10" s="52" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="37"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -3597,7 +3647,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="47" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I11" s="43">
         <v>2</v>
@@ -3621,7 +3671,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -3642,7 +3692,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -3672,7 +3722,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -3695,7 +3745,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -3776,99 +3826,137 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>885</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>77</v>
+      </c>
       <c r="I18" s="23"/>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="23">
+        <v>100</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>2</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>78</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>886</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>79</v>
+      </c>
       <c r="I19" s="23"/>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="23">
+        <v>100</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>2</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>80</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>887</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="I20" s="23"/>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>2</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>82</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>888</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
+      <c r="G21" s="23">
+        <v>0</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>83</v>
+      </c>
       <c r="I21" s="23"/>
       <c r="J21" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K21" s="26"/>
       <c r="L21" s="23"/>
       <c r="M21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="27">
+        <v>1</v>
+      </c>
       <c r="O21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
@@ -4548,7 +4636,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -4578,7 +4666,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>69</v>
@@ -4608,7 +4696,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -4639,11 +4727,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382523148</v>
+        <v>44342.62974537</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4670,7 +4758,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -4701,7 +4789,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -4722,7 +4810,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -4752,7 +4840,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -4773,7 +4861,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4983,7 +5071,7 @@
         <v>11</v>
       </c>
       <c r="P21" s="52" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="Q21" s="37"/>
     </row>
@@ -5641,185 +5729,235 @@
       <c r="B6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>903</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="23">
+        <v>1</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
+      <c r="L6" s="23">
+        <v>50</v>
+      </c>
       <c r="M6" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="27"/>
-      <c r="O6" s="27" t="s">
-        <v>5</v>
+      <c r="O6" s="27">
+        <v>0</v>
       </c>
       <c r="P6" s="28"/>
       <c r="Q6" s="37"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>904</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>1</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="23">
+        <v>100</v>
+      </c>
       <c r="M7" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="27"/>
-      <c r="O7" s="27" t="s">
-        <v>5</v>
+      <c r="O7" s="27">
+        <v>0</v>
       </c>
       <c r="P7" s="28"/>
       <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>231</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>905</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>2</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="23">
+        <v>2</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="23">
+        <v>100</v>
+      </c>
       <c r="M8" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="27"/>
-      <c r="O8" s="27" t="s">
-        <v>5</v>
+      <c r="O8" s="27">
+        <v>0</v>
       </c>
       <c r="P8" s="28"/>
       <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2024</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>906</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>3</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="23">
+        <v>1</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
+      <c r="L9" s="23">
+        <v>50</v>
+      </c>
       <c r="M9" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="27"/>
-      <c r="O9" s="27" t="s">
-        <v>5</v>
+      <c r="O9" s="27">
+        <v>0</v>
       </c>
       <c r="P9" s="28"/>
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382523148</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.62974537</v>
+      </c>
+      <c r="D10" s="2">
+        <v>907</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>3</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="23">
+        <v>2</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K10" s="26"/>
       <c r="L10" s="23"/>
       <c r="M10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="27">
+        <v>1</v>
+      </c>
       <c r="O10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>90</v>
+      </c>
       <c r="Q10" s="37"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>908</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
+      <c r="G11" s="23">
+        <v>4</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="23">
+        <v>2</v>
+      </c>
       <c r="J11" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="26"/>
-      <c r="L11" s="23"/>
+      <c r="L11" s="23">
+        <v>100</v>
+      </c>
       <c r="M11" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N11" s="27"/>
-      <c r="O11" s="27" t="s">
-        <v>5</v>
+      <c r="O11" s="27">
+        <v>0</v>
       </c>
       <c r="P11" s="28"/>
       <c r="Q11" s="37"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5840,7 +5978,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5870,7 +6008,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -5891,7 +6029,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -6754,7 +6892,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -6792,7 +6930,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>70</v>
@@ -6830,7 +6968,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -6869,11 +7007,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382523148</v>
+        <v>44342.62974537</v>
       </c>
       <c r="D10" s="2">
         <v>247</v>
@@ -6910,7 +7048,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -6949,7 +7087,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -6970,7 +7108,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -7000,7 +7138,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -7023,7 +7161,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7104,123 +7242,177 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>898</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="23"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="23">
+        <v>2</v>
+      </c>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="23">
+        <v>100</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>2</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>93</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>899</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="23"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="23">
+        <v>2</v>
+      </c>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="23">
+        <v>100</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>2</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>95</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>900</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="23"/>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" s="23">
+        <v>2</v>
+      </c>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>2</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>97</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>901</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="23"/>
+      <c r="G21" s="23">
+        <v>4</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="23">
+        <v>2</v>
+      </c>
       <c r="J21" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K21" s="26"/>
-      <c r="L21" s="23"/>
+      <c r="L21" s="23">
+        <v>100</v>
+      </c>
       <c r="M21" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N21" s="27"/>
-      <c r="O21" s="27" t="s">
-        <v>5</v>
+      <c r="O21" s="27">
+        <v>0</v>
       </c>
       <c r="P21" s="28"/>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>902</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="23"/>
+      <c r="G22" s="23">
+        <v>4</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="I22" s="23">
+        <v>2</v>
+      </c>
       <c r="J22" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K22" s="26"/>
       <c r="L22" s="23"/>
       <c r="M22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N22" s="27">
+        <v>1</v>
+      </c>
       <c r="O22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>100</v>
+      </c>
       <c r="Q22" s="37"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
@@ -7878,7 +8070,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7908,7 +8100,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>71</v>
@@ -7938,7 +8130,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7969,11 +8161,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382523148</v>
+        <v>44342.62974537</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8000,7 +8192,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -8031,7 +8223,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -8052,7 +8244,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -8082,7 +8274,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -8103,7 +8295,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -8510,75 +8702,105 @@
       <c r="Q29" s="37"/>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>895</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="37"/>
-      <c r="G30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="24"/>
+      <c r="G30" s="23">
+        <v>1</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>101</v>
+      </c>
       <c r="I30" s="23"/>
       <c r="J30" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K30" s="26"/>
-      <c r="L30" s="23"/>
+      <c r="L30" s="23">
+        <v>100</v>
+      </c>
       <c r="M30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N30" s="27">
+        <v>2</v>
+      </c>
       <c r="O30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>95</v>
+      </c>
       <c r="Q30" s="37"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>896</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="37"/>
-      <c r="G31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="24"/>
+      <c r="G31" s="23">
+        <v>2</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>102</v>
+      </c>
       <c r="I31" s="23"/>
       <c r="J31" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K31" s="26"/>
-      <c r="L31" s="23"/>
+      <c r="L31" s="23">
+        <v>100</v>
+      </c>
       <c r="M31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N31" s="27">
+        <v>2</v>
+      </c>
       <c r="O31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>103</v>
+      </c>
       <c r="Q31" s="37"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>897</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="37"/>
-      <c r="G32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="24"/>
+      <c r="G32" s="23">
+        <v>3</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>104</v>
+      </c>
       <c r="I32" s="23"/>
       <c r="J32" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K32" s="26"/>
-      <c r="L32" s="23"/>
+      <c r="L32" s="23">
+        <v>100</v>
+      </c>
       <c r="M32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N32" s="27">
+        <v>2</v>
+      </c>
       <c r="O32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>105</v>
+      </c>
       <c r="Q32" s="37"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
@@ -9014,7 +9236,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -9044,7 +9266,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>72</v>
@@ -9074,7 +9296,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9105,11 +9327,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382523148</v>
+        <v>44342.62974537</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9136,7 +9358,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9167,7 +9389,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9188,7 +9410,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9218,7 +9440,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -9239,7 +9461,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>

--- a/public/cohort/fileExcel/xlsxUIT/SK PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/SK PTA en onderwijsprogramma.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -886,6 +886,9 @@
   </si>
   <si>
     <t>SO H1: Scheiden en reageren</t>
+  </si>
+  <si>
+    <t>kies...</t>
   </si>
   <si>
     <t>startJaar</t>
@@ -2453,7 +2456,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -2519,7 +2522,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -2532,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -2549,7 +2552,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -2615,7 +2618,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>230</v>
@@ -2628,7 +2631,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -2645,7 +2648,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -2711,7 +2714,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -2725,7 +2728,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="45">
         <v>1</v>
@@ -2742,7 +2745,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -2808,11 +2811,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541053241</v>
+        <v>44378.451273148</v>
       </c>
       <c r="D10" s="2">
         <v>893</v>
@@ -2822,7 +2825,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -2839,10 +2842,10 @@
         <v>1</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -2907,7 +2910,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2921,7 +2924,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -2938,7 +2941,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -3004,7 +3007,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -3027,7 +3030,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -3066,14 +3069,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -3098,7 +3101,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4724,7 +4727,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -4740,8 +4743,8 @@
         <v>11</v>
       </c>
       <c r="N6" s="46"/>
-      <c r="O6" s="31">
-        <v>0</v>
+      <c r="O6" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -4807,7 +4810,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -4820,7 +4823,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -4836,8 +4839,8 @@
         <v>11</v>
       </c>
       <c r="N7" s="46"/>
-      <c r="O7" s="31">
-        <v>0</v>
+      <c r="O7" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -4903,7 +4906,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>68</v>
@@ -4916,7 +4919,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -4932,8 +4935,8 @@
         <v>11</v>
       </c>
       <c r="N8" s="46"/>
-      <c r="O8" s="31">
-        <v>0</v>
+      <c r="O8" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -4999,7 +5002,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -5013,7 +5016,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -5029,8 +5032,8 @@
         <v>11</v>
       </c>
       <c r="N9" s="46"/>
-      <c r="O9" s="31">
-        <v>0</v>
+      <c r="O9" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -5096,11 +5099,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541053241</v>
+        <v>44378.451273148</v>
       </c>
       <c r="D10" s="2">
         <v>237</v>
@@ -5110,7 +5113,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -5127,10 +5130,10 @@
         <v>1</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -5195,7 +5198,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5209,7 +5212,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -5225,8 +5228,8 @@
         <v>11</v>
       </c>
       <c r="N11" s="46"/>
-      <c r="O11" s="31">
-        <v>0</v>
+      <c r="O11" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -5292,7 +5295,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5315,7 +5318,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5354,14 +5357,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -5386,7 +5389,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5492,7 +5495,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -5509,10 +5512,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -5584,7 +5587,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -5601,10 +5604,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -5676,7 +5679,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -5693,10 +5696,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -5768,7 +5771,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -5783,10 +5786,10 @@
         <v>1</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -6063,7 +6066,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -7127,7 +7130,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7215,7 +7218,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>69</v>
@@ -7303,7 +7306,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7392,11 +7395,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541053241</v>
+        <v>44378.451273148</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7481,7 +7484,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7570,7 +7573,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7593,7 +7596,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -7632,7 +7635,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -7662,7 +7665,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7768,7 +7771,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -7785,10 +7788,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -7860,7 +7863,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -7877,10 +7880,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -7952,7 +7955,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -7969,10 +7972,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -8044,7 +8047,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -8059,10 +8062,10 @@
         <v>1</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -8339,7 +8342,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -9318,7 +9321,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2">
         <v>903</v>
@@ -9328,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -9344,8 +9347,8 @@
         <v>11</v>
       </c>
       <c r="N6" s="46"/>
-      <c r="O6" s="31">
-        <v>0</v>
+      <c r="O6" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -9411,7 +9414,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -9424,7 +9427,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -9440,8 +9443,8 @@
         <v>11</v>
       </c>
       <c r="N7" s="46"/>
-      <c r="O7" s="31">
-        <v>0</v>
+      <c r="O7" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -9507,7 +9510,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>231</v>
@@ -9520,7 +9523,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -9536,8 +9539,8 @@
         <v>11</v>
       </c>
       <c r="N8" s="46"/>
-      <c r="O8" s="31">
-        <v>0</v>
+      <c r="O8" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -9603,7 +9606,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9617,7 +9620,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I9" s="45">
         <v>1</v>
@@ -9633,8 +9636,8 @@
         <v>11</v>
       </c>
       <c r="N9" s="46"/>
-      <c r="O9" s="31">
-        <v>0</v>
+      <c r="O9" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -9700,11 +9703,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541053241</v>
+        <v>44378.451284722</v>
       </c>
       <c r="D10" s="2">
         <v>907</v>
@@ -9714,7 +9717,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -9731,10 +9734,10 @@
         <v>1</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -9799,7 +9802,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9813,7 +9816,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -9829,8 +9832,8 @@
         <v>11</v>
       </c>
       <c r="N11" s="46"/>
-      <c r="O11" s="31">
-        <v>0</v>
+      <c r="O11" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -9896,7 +9899,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9919,7 +9922,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9958,14 +9961,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -9990,7 +9993,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -11608,7 +11611,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2">
         <v>243</v>
@@ -11618,7 +11621,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -11634,8 +11637,8 @@
         <v>11</v>
       </c>
       <c r="N6" s="46"/>
-      <c r="O6" s="31">
-        <v>0</v>
+      <c r="O6" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11701,7 +11704,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -11714,7 +11717,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -11730,8 +11733,8 @@
         <v>11</v>
       </c>
       <c r="N7" s="46"/>
-      <c r="O7" s="31">
-        <v>0</v>
+      <c r="O7" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11797,7 +11800,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>70</v>
@@ -11810,7 +11813,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -11826,8 +11829,8 @@
         <v>11</v>
       </c>
       <c r="N8" s="46"/>
-      <c r="O8" s="31">
-        <v>0</v>
+      <c r="O8" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -11893,7 +11896,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -11907,7 +11910,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I9" s="45">
         <v>1</v>
@@ -11923,8 +11926,8 @@
         <v>11</v>
       </c>
       <c r="N9" s="46"/>
-      <c r="O9" s="31">
-        <v>0</v>
+      <c r="O9" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -11990,11 +11993,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541053241</v>
+        <v>44378.451284722</v>
       </c>
       <c r="D10" s="2">
         <v>247</v>
@@ -12004,7 +12007,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -12021,10 +12024,10 @@
         <v>1</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -12089,7 +12092,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -12103,7 +12106,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -12119,8 +12122,8 @@
         <v>11</v>
       </c>
       <c r="N11" s="46"/>
-      <c r="O11" s="31">
-        <v>0</v>
+      <c r="O11" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -12186,7 +12189,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -12209,7 +12212,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -12248,14 +12251,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -12280,7 +12283,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -12386,7 +12389,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -12403,7 +12406,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -12476,7 +12479,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -12495,10 +12498,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -12570,7 +12573,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -12589,10 +12592,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -12664,7 +12667,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I21" s="45">
         <v>2</v>
@@ -12680,8 +12683,8 @@
         <v>11</v>
       </c>
       <c r="N21" s="46"/>
-      <c r="O21" s="31">
-        <v>0</v>
+      <c r="O21" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -12754,7 +12757,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I22" s="45">
         <v>2</v>
@@ -12771,10 +12774,10 @@
         <v>1</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -12969,7 +12972,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -13950,7 +13953,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -14035,7 +14038,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>71</v>
@@ -14211,7 +14214,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -14300,11 +14303,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541053241</v>
+        <v>44378.451284722</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14389,7 +14392,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -14478,7 +14481,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -14501,7 +14504,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -14540,7 +14543,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -14570,7 +14573,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -14676,7 +14679,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -14695,10 +14698,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -14770,7 +14773,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -14789,10 +14792,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -14864,7 +14867,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -14883,10 +14886,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -14958,7 +14961,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I21" s="45">
         <v>2</v>
@@ -14974,8 +14977,8 @@
         <v>11</v>
       </c>
       <c r="N21" s="46"/>
-      <c r="O21" s="31">
-        <v>0</v>
+      <c r="O21" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -15048,7 +15051,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I22" s="45">
         <v>2</v>
@@ -15065,10 +15068,10 @@
         <v>1</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -15263,7 +15266,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -15387,7 +15390,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -15404,10 +15407,10 @@
         <v>2</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -15479,7 +15482,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -15496,10 +15499,10 @@
         <v>2</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -15571,7 +15574,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -15588,10 +15591,10 @@
         <v>2</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -15920,7 +15923,7 @@
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
       <c r="G38" s="48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
@@ -16276,7 +16279,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16361,7 +16364,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -16449,7 +16452,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>72</v>
@@ -16537,7 +16540,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -16626,11 +16629,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541053241</v>
+        <v>44378.451284722</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16715,7 +16718,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -16804,7 +16807,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -16827,7 +16830,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -16866,7 +16869,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -16896,7 +16899,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -17657,7 +17660,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -17674,10 +17677,10 @@
         <v>2</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -17749,7 +17752,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -17766,10 +17769,10 @@
         <v>2</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -17841,7 +17844,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -17858,10 +17861,10 @@
         <v>2</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -18190,7 +18193,7 @@
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
       <c r="G38" s="48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
